--- a/ComparedResults/DIV3_Main_Tables.xlsx
+++ b/ComparedResults/DIV3_Main_Tables.xlsx
@@ -471,10 +471,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.5" customWidth="1" min="1" max="1"/>
-    <col width="9.5" customWidth="1" min="2" max="2"/>
-    <col width="10.5" customWidth="1" min="3" max="3"/>
-    <col width="9.5" customWidth="1" min="4" max="4"/>
+    <col width="11.3" customWidth="1" min="1" max="1"/>
+    <col width="11.3" customWidth="1" min="2" max="2"/>
+    <col width="12.3" customWidth="1" min="3" max="3"/>
+    <col width="11.3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,10 +534,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.5" customWidth="1" min="1" max="1"/>
-    <col width="17.5" customWidth="1" min="2" max="2"/>
-    <col width="10.5" customWidth="1" min="3" max="3"/>
-    <col width="18.5" customWidth="1" min="4" max="4"/>
+    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="19.3" customWidth="1" min="2" max="2"/>
+    <col width="12.3" customWidth="1" min="3" max="3"/>
+    <col width="20.3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1093,10 +1093,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.5" customWidth="1" min="1" max="1"/>
-    <col width="6.5" customWidth="1" min="2" max="2"/>
-    <col width="8.5" customWidth="1" min="3" max="3"/>
-    <col width="6.5" customWidth="1" min="4" max="4"/>
+    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
+    <col width="10.3" customWidth="1" min="3" max="3"/>
+    <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,10 +1636,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.5" customWidth="1" min="1" max="1"/>
-    <col width="17.5" customWidth="1" min="2" max="2"/>
-    <col width="17.5" customWidth="1" min="3" max="3"/>
-    <col width="18.5" customWidth="1" min="4" max="4"/>
+    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="19.3" customWidth="1" min="2" max="2"/>
+    <col width="19.3" customWidth="1" min="3" max="3"/>
+    <col width="20.3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2179,10 +2179,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.5" customWidth="1" min="1" max="1"/>
-    <col width="6.5" customWidth="1" min="2" max="2"/>
-    <col width="8.5" customWidth="1" min="3" max="3"/>
-    <col width="6.5" customWidth="1" min="4" max="4"/>
+    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
+    <col width="10.3" customWidth="1" min="3" max="3"/>
+    <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ComparedResults/DIV3_Main_Tables.xlsx
+++ b/ComparedResults/DIV3_Main_Tables.xlsx
@@ -37,10 +37,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -58,14 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,17 +501,17 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>136476.94</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>139183.52</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>131446.65</v>
-      </c>
       <c r="C2" s="3" t="n">
-        <v>7736.87</v>
+        <v>-2706.57</v>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,9 +534,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="19.3" customWidth="1" min="2" max="2"/>
-    <col width="12.3" customWidth="1" min="3" max="3"/>
+    <col width="19.3" customWidth="1" min="3" max="3"/>
     <col width="20.3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>2504.768</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>2985.92</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>2774.08</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>211.8400000000001</v>
+        <v>-481.152</v>
       </c>
     </row>
     <row r="3">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>2473.28</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>1870.144</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1764.16</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>105.9840000000002</v>
+      <c r="D3" s="5" t="n">
+        <v>603.1359999999995</v>
       </c>
     </row>
     <row r="4">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>1938.816</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>2554.88</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>2073.408</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>481.4720000000002</v>
+        <v>-616.0640000000003</v>
       </c>
     </row>
     <row r="5">
@@ -617,339 +617,339 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
+        <v>2751.36</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>3074.1067</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>3262.2062</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-188.0994999999994</v>
+      <c r="D5" s="4" t="n">
+        <v>-322.7467000000006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>1996.288</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1639.936</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>-1639.936</v>
+        <v>2373.44</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>-377.1519999999996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>2373.44</v>
+        <v>34320.6011</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1833.216</v>
+        <v>36299.0782</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>540.2239999999997</v>
+        <v>-1978.477100000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>36299.0782</v>
+        <v>1873.664</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>34210.4566</v>
+        <v>2093.888</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>2088.621600000006</v>
+        <v>-220.2239999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2093.888</v>
+        <v>4876.96</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2335.072</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>-241.1840000000002</v>
+        <v>4998</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>-121.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DAESHA SAFE TRANSPORT</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>4998</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>4902.12</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>95.88000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>DAESHA SAFE TRANSPORT</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>1551.36</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
+      <c r="D11" s="5" t="n">
+        <v>1551.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>GRAND TOUR TRANSPORTATION</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>235.264</v>
+        <v>698.624</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>235.264</v>
+      <c r="D12" s="5" t="n">
+        <v>698.624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>3303.68</v>
+        <v>1422.912</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2665.856</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>637.8240000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1422.912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9663.769100000001</v>
+        <v>891.136</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>10947.1274</v>
+        <v>235.264</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1283.3583</v>
+        <v>655.872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4304.196</v>
+        <v>3246.4</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>4847.72</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-543.5240000000003</v>
+        <v>3303.68</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-57.2800000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>HUNDREDFOLD SERVICES, LLC</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2627.84</v>
+        <v>7691.8577</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>2514.24</v>
+        <v>9663.769100000001</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>113.6000000000004</v>
+        <v>-1971.911400000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>117.504</v>
+        <v>407.296</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1948.544</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1831.04</v>
+        <v>407.296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>3096.992</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1372.672</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-1372.672</v>
+        <v>4304.196</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>-1207.204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>LIZZY'S TRANSPORTATION LLC</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2456.64</v>
+        <v>1948.48</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>2195.136</v>
+        <v>2627.84</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>261.5040000000004</v>
+        <v>-679.3600000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1889.344</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>-1665.344</v>
+        <v>117.504</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>-117.504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>LYNN TRAVELING</t>
+          <t>LAQUESHA HENDERSON</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2308.8</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>2394.88</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>-86.07999999999993</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>MELINIO TRANSIT (TX)</t>
+          <t>LIZZY'S TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45173.4017</v>
+        <v>1937.536</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>48378.1306</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>-3204.728900000002</v>
+        <v>2456.64</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>-519.1040000000003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ON THE MOVE LLC</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>-224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ON-DIME LLC</t>
+          <t>LYNN TRAVELING</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2515.84</v>
+        <v>2268.16</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>1902.592</v>
+        <v>2308.8</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>613.248</v>
+        <v>-40.64000000000033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>ORION TRANSIT, LLC</t>
+          <t>MELINIO TRANSIT (TX)</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>38893.469</v>
+        <v>54510.8107</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>37769.0378</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1124.431199999999</v>
+        <v>45173.4017</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>9337.409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>ON THE MOVE LLC</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -965,87 +965,87 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>PICKUP PARTNERS LLC</t>
+          <t>ON-DIME LLC</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2836.3911</v>
+        <v>2059.584</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>2771.4133</v>
+        <v>2515.84</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>64.97779999999966</v>
+        <v>-456.2560000000003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>QUNIFIA JACKSON</t>
+          <t>ORION TRANSIT, LLC</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>37909.3049</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>0</v>
+        <v>38893.469</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>-984.1640999999945</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1289.008</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>-1289.008</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>PICKUP PARTNERS LLC</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>10102.7736</v>
+        <v>3036.6773</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>11229.52</v>
+        <v>2836.3911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1126.7464</v>
+        <v>200.2862000000005</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
+          <t>QUNIFIA JACKSON</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>-633.6</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>TRAVEL GALS AND GENTS LLC</t>
+          <t>RESILIENT LOGISTICS MGMT LLC</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
@@ -1061,16 +1061,96 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
+          <t>ROYAL T KARE LLC</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>9603.269800000002</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>10102.7736</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>-499.5037999999986</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>346.624</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>346.624</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>TIFFANY MURDOCK</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>815.36</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>815.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>TRAVEL GALS AND GENTS LLC</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
           <t>UAD TRANSPORTATION</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B38" s="3" t="n">
         <v>2304</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C38" s="3" t="n">
         <v>2304</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1173,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
@@ -1172,30 +1252,30 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>685</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>-685</v>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>685</v>
+        <v>6850</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>685</v>
+        <v>6850</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -1204,14 +1284,14 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6850</v>
+        <v>685</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>6850</v>
+        <v>685</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -1220,7 +1300,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -1236,14 +1316,14 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DAESHA SAFE TRANSPORT</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0</v>
@@ -1252,71 +1332,71 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>DAESHA SAFE TRANSPORT</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>GRAND TOUR TRANSPORTATION</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>68.5</v>
+        <v>274</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>68.5</v>
+      <c r="D11" s="5" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>685</v>
+        <v>548</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>685</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>548</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2055</v>
+        <v>685</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2055</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
+        <v>68.5</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>616.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
@@ -1332,14 +1412,14 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>HUNDREDFOLD SERVICES, LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>685</v>
+        <v>2055</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>685</v>
+        <v>2055</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>0</v>
@@ -1348,39 +1428,39 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
         <v>342.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-342.5</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>685</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>-685</v>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>LIZZY'S TRANSPORTATION LLC</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -1396,30 +1476,30 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>685</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-616.5</v>
+        <v>342.5</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>-342.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>LYNN TRAVELING</t>
+          <t>LAQUESHA HENDERSON</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>0</v>
@@ -1428,14 +1508,14 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>MELINIO TRANSIT (TX)</t>
+          <t>LIZZY'S TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8220</v>
+        <v>685</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>8220</v>
+        <v>685</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>0</v>
@@ -1444,23 +1524,23 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ON THE MOVE LLC</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0</v>
+        <v>68.5</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>-68.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ON-DIME LLC</t>
+          <t>LYNN TRAVELING</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -1476,14 +1556,14 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ORION TRANSIT, LLC</t>
+          <t>MELINIO TRANSIT (TX)</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4795</v>
+        <v>8220</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4795</v>
+        <v>8220</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0</v>
@@ -1492,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>ON THE MOVE LLC</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -1508,7 +1588,7 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>PICKUP PARTNERS LLC</t>
+          <t>ON-DIME LLC</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
@@ -1524,14 +1604,14 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>QUNIFIA JACKSON</t>
+          <t>ORION TRANSIT, LLC</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>0</v>
@@ -1540,30 +1620,30 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>-342.5</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>PICKUP PARTNERS LLC</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2740</v>
+        <v>685</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>2740</v>
+        <v>685</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>0</v>
@@ -1572,23 +1652,23 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
+          <t>QUNIFIA JACKSON</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>-205.5</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>TRAVEL GALS AND GENTS LLC</t>
+          <t>RESILIENT LOGISTICS MGMT LLC</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -1604,16 +1684,96 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
+          <t>ROYAL T KARE LLC</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>2740</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>2740</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>TIFFANY MURDOCK</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>TRAVEL GALS AND GENTS LLC</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
           <t>UAD TRANSPORTATION</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B37" s="3" t="n">
         <v>685</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C37" s="3" t="n">
         <v>685</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,8 +1796,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
-    <col width="19.3" customWidth="1" min="2" max="2"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
+    <col width="9.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="19.3" customWidth="1" min="3" max="3"/>
     <col width="20.3" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1671,13 +1831,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>18.74</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>76.47</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>-57.73</v>
+      <c r="D2" s="4" t="n">
+        <v>-18.74</v>
       </c>
     </row>
     <row r="3">
@@ -1687,13 +1847,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>15.12</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-42.68</v>
+      <c r="D3" s="4" t="n">
+        <v>-15.12</v>
       </c>
     </row>
     <row r="4">
@@ -1703,99 +1863,99 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>47.83999999999997</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>177.24</v>
-      </c>
       <c r="D4" s="5" t="n">
-        <v>-129.4</v>
+        <v>2.160000000000025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>106.36</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-14.54</v>
+        <v>542.51</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-436.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>542.51</v>
+        <v>1948.52</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>89.48</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>453.03</v>
+        <v>955.16</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>993.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>955.16</v>
+        <v>16.32</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2828.9</v>
+        <v>4.65</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-1873.74</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>24.44</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>-19.79</v>
+        <v>97.17</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-97.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DAESHA SAFE TRANSPORT</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>97.17</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>301.82</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>-204.65</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>DAESHA SAFE TRANSPORT</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -1811,7 +1971,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>GRAND TOUR TRANSPORTATION</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -1827,167 +1987,167 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-55.23</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>501.46</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>257.33</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>244.1300000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>53.29</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>149.93</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-96.64000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>HUNDREDFOLD SERVICES, LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>232.6</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-27</v>
+        <v>501.46</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-268.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-114.5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>48.97</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-163.47</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>263.98</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>26.6</v>
+        <v>53.29</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-26.6</v>
+        <v>210.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>LIZZY'S TRANSPORTATION LLC</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>33.64</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-33.64</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>16.9</v>
+        <v>-114.5</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-16.9</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>LYNN TRAVELING</t>
+          <t>LAQUESHA HENDERSON</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>57.28</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>-31.64</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>MELINIO TRANSIT (TX)</t>
+          <t>LIZZY'S TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2575.89</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>3276.19</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>-700.2999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ON THE MOVE LLC</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -2003,39 +2163,39 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ON-DIME LLC</t>
+          <t>LYNN TRAVELING</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>304.89</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>108.3</v>
+        <v>25.64</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>196.59</v>
+        <v>-25.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ORION TRANSIT, LLC</t>
+          <t>MELINIO TRANSIT (TX)</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1113.09</v>
+        <v>3870.31</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>829.6700000000001</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>283.4200000000001</v>
+        <v>2575.89</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1294.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>ON THE MOVE LLC</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -2051,87 +2211,87 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>PICKUP PARTNERS LLC</t>
+          <t>ON-DIME LLC</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>107.47</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>-92.47</v>
+        <v>304.89</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>-304.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>QUNIFIA JACKSON</t>
+          <t>ORION TRANSIT, LLC</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>0</v>
+        <v>1113.09</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>-713.0900000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>36.34</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>-36.34</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>PICKUP PARTNERS LLC</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1209.9</v>
+        <v>400</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1058.33</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>151.5700000000002</v>
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
+          <t>QUNIFIA JACKSON</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>-25.16</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>TRAVEL GALS AND GENTS LLC</t>
+          <t>RESILIENT LOGISTICS MGMT LLC</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -2147,17 +2307,97 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
+          <t>ROYAL T KARE LLC</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1096.24</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1209.9</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>-113.6600000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>TIFFANY MURDOCK</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>TRAVEL GALS AND GENTS LLC</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
           <t>UAD TRANSPORTATION</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>-12.78</v>
+      <c r="B37" s="3" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>265.4</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,7 +2419,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
@@ -2214,13 +2454,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>255.5</v>
-      </c>
       <c r="D2" s="5" t="n">
-        <v>-174.5</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="3">
@@ -2230,13 +2470,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>127.5</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>210</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>-82.5</v>
+      <c r="D3" s="4" t="n">
+        <v>-51.5</v>
       </c>
     </row>
     <row r="4">
@@ -2246,339 +2486,339 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>-209</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>388.5</v>
-      </c>
       <c r="D4" s="5" t="n">
-        <v>-597.5</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>227.5</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-227.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>4.5</v>
+        <v>1232</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>227.5</v>
+        <v>-634</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-223</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-634</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1407</v>
+        <v>24.5</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-2041</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>24.5</v>
+        <v>396</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>332.5</v>
+        <v>373.5</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-308</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DAESHA SAFE TRANSPORT</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>373.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>355.5</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>DAESHA SAFE TRANSPORT</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" s="5" t="n">
+        <v>105.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>GRAND TOUR TRANSPORTATION</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-35</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-100</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>24.5</v>
+        <v>-35</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-24.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>292</v>
+        <v>-14</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>521.5</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-229.5</v>
+        <v>215</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>HUNDREDFOLD SERVICES, LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>270</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-118</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-110.5</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-327.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-81</v>
+        <v>88.5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>-263</v>
+        <v>292</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-203.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>LIZZY'S TRANSPORTATION LLC</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>290.5</v>
+        <v>152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-125.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>269.5</v>
+        <v>-110.5</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-227.5</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>LYNN TRAVELING</t>
+          <t>LAQUESHA HENDERSON</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-87</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>266</v>
+        <v>-81</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-353</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>MELINIO TRANSIT (TX)</t>
+          <t>LIZZY'S TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>301</v>
+        <v>143.5</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>434</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>-133</v>
+        <v>165</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>-21.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>ON THE MOVE LLC</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>-42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>ON-DIME LLC</t>
+          <t>LYNN TRAVELING</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.5</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>170</v>
+        <v>-87</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-167.5</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ORION TRANSIT, LLC</t>
+          <t>MELINIO TRANSIT (TX)</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>500.5</v>
+        <v>311.5</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>441</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>59.5</v>
+        <v>301</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>ON THE MOVE LLC</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
@@ -2594,87 +2834,87 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>PICKUP PARTNERS LLC</t>
+          <t>ON-DIME LLC</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>374.5</v>
+        <v>2.5</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-278.5</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>QUNIFIA JACKSON</t>
+          <t>ORION TRANSIT, LLC</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>-282.5</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>0</v>
+        <v>500.5</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>-783</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>-171.5</v>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>PICKUP PARTNERS LLC</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>822.5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1547</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>-724.5</v>
+        <v>96</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>-90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
+          <t>QUNIFIA JACKSON</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>-131</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>TRAVEL GALS AND GENTS LLC</t>
+          <t>RESILIENT LOGISTICS MGMT LLC</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -2690,17 +2930,97 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
+          <t>ROYAL T KARE LLC</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>-66.5</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>822.5</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>-889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>-33</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>TIFFANY MURDOCK</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>TRAVEL GALS AND GENTS LLC</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
           <t>UAD TRANSPORTATION</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B37" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>245</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>-240.5</v>
+      <c r="D37" s="5" t="n">
+        <v>163.5</v>
       </c>
     </row>
   </sheetData>
